--- a/downloads/analysis.xlsx
+++ b/downloads/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,111 +434,138 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page number</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Page number</t>
+          <t>Lexical score %</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Lexical score %</t>
+          <t>Numerical score %</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Numerical score %</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Explanation</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>97.8%</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>97.9%</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lexical</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lexical</t>
+          <t>fourfold</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cishock we</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Potentially misspelled or incorrectly OCR'd text 'Cishock we'.</t>
+          <t>The correct term is likely 'four-part' or 'four-part division'.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>97.8%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>92.3%</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Numerical</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1\". ophiolitic accretionary prism;</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>List numbering seems inconsistent; it should be '1. ophiolitic accretionary prism;' to maintain order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>97.9%</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>80.0%</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>97.8%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>84.6%</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Numerical</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60170375</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Seems to be an incorrect formatting or an unrelated number in the context.</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3\". plutonic-volcanic arc;</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>The list numbering should be '4. plutonic-volcanic arc;' to maintain order.</t>
         </is>
       </c>
     </row>

--- a/downloads/analysis.xlsx
+++ b/downloads/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,17 +472,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>97.8%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>97</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -494,78 +490,215 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>fourfold</t>
+          <t>claces</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The correct term is likely 'four-part' or 'four-part division'.</t>
+          <t>The word 'claces' is a misspelling. It should be 'cases'.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>97.8%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>92.3%</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Numerical</t>
+          <t>Lexical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1\". ophiolitic accretionary prism;</t>
+          <t>ani</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>List numbering seems inconsistent; it should be '1. ophiolitic accretionary prism;' to maintain order.</t>
+          <t>The word 'ani' is a misspelling. It should be 'and'.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>97.8%</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>84.6%</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>97</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Numerical</t>
+          <t>Lexical</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3\". plutonic-volcanic arc;</t>
+          <t>ais</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The list numbering should be '4. plutonic-volcanic arc;' to maintain order.</t>
+          <t>The word 'ais' is a typographical error. It should be 'as'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lexical</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>cilor</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>The word 'cil' is a typographical error. It should be 'oil'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>97</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lexical</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>&amp;</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The ampersand '&amp;' is incorrectly used here. It should be spelled out as 'and'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lexical</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sespages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>The word 'sespages' is a misspelling. It should be 'sections'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lexical</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>rook</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>The word 'rook' is a misspelling. It should be 'rock'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lexical</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>rook</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The word 'rook' is a misspelling. It should be 'rock'.</t>
         </is>
       </c>
     </row>

--- a/downloads/analysis.xlsx
+++ b/downloads/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,10 +472,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
@@ -490,21 +490,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>claces</t>
+          <t>H013021877 KATALYST DATA MANAGEMENT</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The word 'claces' is a misspelling. It should be 'cases'.</t>
+          <t>The sequence 'H013021877' appears to be a form of ID, but without context, it's unclear if it's numerical or alphanumeric. Usually, IDs are presented in a more structured format.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
@@ -519,21 +519,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ani</t>
+          <t>schematic fourfold geotectonic division of Costa Rica</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>The word 'ani' is a misspelling. It should be 'and'.</t>
+          <t>'Fourfold' is typically used in mathematical contexts. 'Four-part' or 'four-part division' might be more appropriate for describing divisions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
@@ -548,157 +548,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ais</t>
+          <t>1. ophiolitic accretionary prism; 2. frontal arc; 3. plutonic-volcanic arc; 4. back arc</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The word 'ais' is a typographical error. It should be 'as'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>97</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Lexical</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>cilor</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>The word 'cil' is a typographical error. It should be 'oil'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>97</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Lexical</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>&amp;</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>The ampersand '&amp;' is incorrectly used here. It should be spelled out as 'and'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>97</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lexical</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>sespages</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>The word 'sespages' is a misspelling. It should be 'sections'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>97</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lexical</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>rook</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>The word 'rook' is a misspelling. It should be 'rock'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>97</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lexical</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>rook</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>The word 'rook' is a misspelling. It should be 'rock'.</t>
+          <t>The list uses both numbers and words for enumeration. Consistency in using either numbers or words throughout is recommended.</t>
         </is>
       </c>
     </row>

--- a/downloads/analysis.xlsx
+++ b/downloads/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -490,12 +490,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>H013021877 KATALYST DATA MANAGEMENT</t>
+          <t>Figure 2. Schematic fourfold geotectonic</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The sequence 'H013021877' appears to be a form of ID, but without context, it's unclear if it's numerical or alphanumeric. Usually, IDs are presented in a more structured format.</t>
+          <t>The word 'division' is missing after 'geotectonic'.</t>
         </is>
       </c>
     </row>
@@ -504,56 +504,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lexical</t>
+          <t>Numerical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>schematic fourfold geotectonic division of Costa Rica</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>'Fourfold' is typically used in mathematical contexts. 'Four-part' or 'four-part division' might be more appropriate for describing divisions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lexical</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1. ophiolitic accretionary prism; 2. frontal arc; 3. plutonic-volcanic arc; 4. back arc</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>The list uses both numbers and words for enumeration. Consistency in using either numbers or words throughout is recommended.</t>
+          <t>The number '4' is misplaced and interrupts the sequence of the points listed.</t>
         </is>
       </c>
     </row>
